--- a/output/google_maps_data_SPBU_Sleman.xlsx
+++ b/output/google_maps_data_SPBU_Sleman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.555.02+Helsen/@-7.708579,110.2826642,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5f3602bababb:0x3d988e8eb2d0bb04!8m2!3d-7.708579!4d110.354762!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzv1ctjk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -530,25 +524,24 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>-7.71319</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.71319</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.342977</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.27/@-7.708579,110.2826642,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5f4d622b346f:0xa869a60e1c50d288!8m2!3d-7.7131898!4d110.3429766!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzt7h0y2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -563,21 +556,20 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
+      <c r="E4" t="n">
         <v>4.2</v>
       </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/POM+BENSIN+TLOGOADI/@-7.708579,110.2826642,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a58a25fba98ab:0x22f81d2440214b5c!8m2!3d-7.7344738!4d110.3396745!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11c0vph13w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -600,25 +592,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.2</v>
+        <v>-7.732681</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.732681</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.363662</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Mulungan%2FMlati/@-7.708579,110.2826642,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a58c2f62b0391:0xf1ab080746010a2f!8m2!3d-7.7326805!4d110.3636619!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11ckky6xw4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Mulungan%2FMlati/@-7.708579,110.2826642,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a58c2f62b0391:0xf1ab080746010a2f!8m2!3d-7.7326805!4d110.3636619!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11ckky6xw4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>9 jam lalu</t>
         </is>
@@ -641,25 +632,24 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.3</v>
+        <v>-7.746823</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.746823</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.353978</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Ringroad+Jombor+Pertamina+43.552.18/@-7.708579,110.2826642,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a588d3f5abc33:0xa786aba8e7f07246!8m2!3d-7.7468233!4d110.353978!15sCgtTUEJVIFNsZW1hbloNIgtzcGJ1IHNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11cjj5c9wj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Ringroad+Jombor+Pertamina+43.552.18/@-7.708579,110.2826642,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a588d3f5abc33:0xa786aba8e7f07246!8m2!3d-7.7468233!4d110.353978!15sCgtTUEJVIFNsZW1hbloNIgtzcGJ1IHNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11cjj5c9wj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>1 jam lalu</t>
         </is>
@@ -678,25 +668,24 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.1</v>
+        <v>-7.734297</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.734297</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.339661</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Getas/@-7.708579,110.2826642,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a58a24415cf47:0xec79b83f56586c63!8m2!3d-7.7342969!4d110.3396613!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11cp23l_qj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -715,25 +704,24 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.2</v>
+        <v>-7.755951</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.755951</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.382513</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.09+Kentungan/@-7.708579,110.2826642,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a59aa45912a81:0x68458fbcaea50d9f!8m2!3d-7.7559509!4d110.3825131!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzs_15hc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -756,25 +744,24 @@
           <t>(0274) 584470</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.3</v>
+        <v>-7.760211</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.760211</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.369296</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.08+Monjali/@-7.708579,110.2826642,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5851acb39c79:0x53cf455d8efca403!8m2!3d-7.7602111!4d110.3692957!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pty9wf8k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.08+Monjali/@-7.708579,110.2826642,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5851acb39c79:0x53cf455d8efca403!8m2!3d-7.7602111!4d110.3692957!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pty9wf8k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>12 jam lalu</t>
         </is>
@@ -801,25 +788,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.3</v>
+        <v>-7.780049</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.780049</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.343282</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pertamina+Petrol+Station+of+Banyuraden/@-7.7800494,110.2711844,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5812736bc2d7:0x6de1f6c9cd3ad910!8m2!3d-7.7800494!4d110.3432822!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzryyk9f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pertamina+Petrol+Station+of+Banyuraden/@-7.7800494,110.2711844,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5812736bc2d7:0x6de1f6c9cd3ad910!8m2!3d-7.7800494!4d110.3432822!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzryyk9f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -846,25 +832,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.4</v>
+        <v>-7.773564</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.773564</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.315188</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.06+Godean/@-7.7800494,110.2711844,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7af7c38fd9b029:0xf39831c5f0b0d20c!8m2!3d-7.7735639!4d110.3151882!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzq82xsp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.06+Godean/@-7.7800494,110.2711844,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7af7c38fd9b029:0xf39831c5f0b0d20c!8m2!3d-7.7735639!4d110.3151882!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzq82xsp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -883,25 +868,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.2</v>
+        <v>-7.736196</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.736196</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.39456</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.05+Prujakan/@-7.7361962,110.322462,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5916ede03da5:0x6ae6e622f8095f07!8m2!3d-7.7361962!4d110.3945598!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b61qzdmb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -916,25 +900,24 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.5</v>
+        <v>-7.696461</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.696461</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.41752</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.35+UII/@-7.7361962,110.322462,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5ff01b4f99f1:0xb4396877f6a6d96b!8m2!3d-7.6964607!4d110.4175198!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11fl7vx9mf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -953,25 +936,24 @@
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.2</v>
+        <v>-7.759885</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.759885</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.394773</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Gejayan+44.555.03/@-7.7361962,110.322462,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a59a43f8b245f:0x77adef82ade273f7!8m2!3d-7.7598847!4d110.3947727!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11dxk75pbd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -994,25 +976,24 @@
           <t>(0274) 4546499</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.4</v>
+        <v>-7.758202</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.758202</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.320261</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.555.22/@-7.7582022,110.2481629,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7af7d2bec54bb3:0xb0e209d8928e99e1!8m2!3d-7.7582022!4d110.3202607!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzvfqvj0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1027,25 +1008,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.3</v>
+        <v>-7.695219</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.695219</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.345778</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+44.555.32+Krapyak/@-7.695219,110.2736801,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5f555daa3461:0xfac0049a274727f0!8m2!3d-7.695219!4d110.3457779!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11h22vrpbv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+44.555.32+Krapyak/@-7.695219,110.2736801,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5f555daa3461:0xfac0049a274727f0!8m2!3d-7.695219!4d110.3457779!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11h22vrpbv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1064,25 +1044,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F17" t="n">
-        <v>3.8</v>
+        <v>-7.719701</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.719701</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.375595</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina/@-7.695219,110.2736801,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a58d156b6a2ab:0x709a8dcac7a3caf2!8m2!3d-7.7197015!4d110.3755952!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11c1ljvrbf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina/@-7.695219,110.2736801,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a58d156b6a2ab:0x709a8dcac7a3caf2!8m2!3d-7.7197015!4d110.3755952!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11c1ljvrbf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>1 jam lalu</t>
         </is>
@@ -1105,25 +1084,24 @@
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.2</v>
+        <v>-7.732218</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.732218</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.325538</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Cebongan/@-7.695219,110.2736801,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7af61eb7292e7d:0x21a50c61e6bb540c!8m2!3d-7.7322179!4d110.3255378!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11d_76bsfh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1142,25 +1120,24 @@
           <t>(0274) 488518</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.2</v>
+        <v>-7.783631</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.783631</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.406586</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.10/@-7.7836306,110.3344883,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a59e89e585be9:0x6ea682fa75be5af7!8m2!3d-7.7836306!4d110.4065861!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b64k_30t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.10/@-7.7836306,110.3344883,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a59e89e585be9:0x6ea682fa75be5af7!8m2!3d-7.7836306!4d110.4065861!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b64k_30t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>6 jam lalu</t>
         </is>
@@ -1183,21 +1160,20 @@
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
+      <c r="E20" t="n">
         <v>4.3</v>
       </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+44.555.19+Mlati+Baru/@-7.7388252,110.2905095,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a58e93a03a78f:0xaaa5b5667903ba6d!8m2!3d-7.7388252!4d110.3626073!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b72qn4hr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+44.555.19+Mlati+Baru/@-7.7388252,110.2905095,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a58e93a03a78f:0xaaa5b5667903ba6d!8m2!3d-7.7388252!4d110.3626073!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b72qn4hr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1216,25 +1192,24 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.2</v>
+        <v>-7.704977</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.704977</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.431184</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Mindi/@-7.7049775,110.3590863,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5c03e2b64397:0x3c44f01bd32377a7!8m2!3d-7.7049775!4d110.4311841!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzqcl92r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1257,25 +1232,24 @@
           <t>(0274) 882989</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.3</v>
+        <v>-7.710803</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.710803</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.40923</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.18+Pedak/@-7.7049775,110.3590863,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a59381329b2d9:0x7303cae4280e2e10!8m2!3d-7.7108032!4d110.4092302!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b73xrt3v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.18+Pedak/@-7.7049775,110.3590863,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a59381329b2d9:0x7303cae4280e2e10!8m2!3d-7.7108032!4d110.4092302!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b73xrt3v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1302,25 +1276,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.4</v>
+        <v>-7.727933</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.727933</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.380284</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Palagan+44.555.09/@-7.7279328,110.3081859,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a59273e8c7237:0x334190d8ad398fde!8m2!3d-7.7279328!4d110.3802837!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzxst7tg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1335,25 +1308,24 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.4</v>
+        <v>-7.67649</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.67649</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.336834</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Medari/@-7.6764903,110.2647362,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5fb75d046cfb:0x132f658774e66be0!8m2!3d-7.6764903!4d110.336834!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11js46yyzf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Medari/@-7.6764903,110.2647362,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5fb75d046cfb:0x132f658774e66be0!8m2!3d-7.6764903!4d110.336834!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11js46yyzf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1376,25 +1348,24 @@
           <t>(0274) 383608</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.5</v>
+        <v>-7.802809</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.802809</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.313175</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Ambarketawang+Pertamina+44.552.07/@-7.8028087,110.2410774,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7af81c1dd22993:0x9720d384451af0b9!8m2!3d-7.8028087!4d110.3131752!15sCgtTUEJVIFNsZW1hbloNIgtzcGJ1IHNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzpm2756?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Ambarketawang+Pertamina+44.552.07/@-7.8028087,110.2410774,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7af81c1dd22993:0x9720d384451af0b9!8m2!3d-7.8028087!4d110.3131752!15sCgtTUEJVIFNsZW1hbloNIgtzcGJ1IHNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzpm2756?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1413,25 +1384,24 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.4</v>
+        <v>-7.78301</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.78301</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.408051</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+COCO+Pertamina+41.552.01+Laksda+Adisucipto/@-7.7830104,110.3359528,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a59e8b1fbc093:0xc427e0048f072dd5!8m2!3d-7.7830104!4d110.4080506!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1ptvrqn5c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+COCO+Pertamina+41.552.01+Laksda+Adisucipto/@-7.7830104,110.3359528,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a59e8b1fbc093:0xc427e0048f072dd5!8m2!3d-7.7830104!4d110.4080506!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1ptvrqn5c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>16 jam lalu</t>
         </is>
@@ -1450,25 +1420,24 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.2</v>
+        <v>-7.683974</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.683974</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.298763</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.23+Gendol/@-7.683974,110.2266656,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7af5a4f9749989:0x7c47f7f67d9fff08!8m2!3d-7.683974!4d110.2987634!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bzrvmd79?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1483,25 +1452,24 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.3</v>
+        <v>-7.723719</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.723719</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.30788</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Seyegan/@-7.683974,110.2266656,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7af60cdab678f7:0x44d95929ce8cc39a!8m2!3d-7.7237191!4d110.3078795!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11cjh_mhjp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1516,25 +1484,24 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.2</v>
+        <v>-7.7406</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.7406</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.433943</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+Wedomartani+44.555.20/@-7.7406003,110.361845,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5bdbffffffff:0x28215766a13a8d53!8m2!3d-7.7406003!4d110.4339428!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzv6l1sb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+Wedomartani+44.555.20/@-7.7406003,110.361845,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5bdbffffffff:0x28215766a13a8d53!8m2!3d-7.7406003!4d110.4339428!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzv6l1sb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1553,25 +1520,24 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.1</v>
+        <v>-7.766247</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.766247</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.431646</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+PertaminaTajem+44.552.17/@-7.7406003,110.361845,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5a26a059914d:0x5fc0da83f2005bff!8m2!3d-7.7662469!4d110.4316464!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bv3x_r28?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+PertaminaTajem+44.552.17/@-7.7406003,110.361845,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5a26a059914d:0x5fc0da83f2005bff!8m2!3d-7.7662469!4d110.4316464!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bv3x_r28?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1598,25 +1564,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.3</v>
+        <v>-7.774649</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.774649</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.462672</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Kalasan+44.555.15/@-7.7406003,110.361845,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5a66182cf779:0x69caa64a893cfa9d!8m2!3d-7.774649!4d110.462672!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzsncs5_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1635,25 +1600,24 @@
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.3</v>
+        <v>-7.807298</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.807298</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.291018</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+44.555.16+Balecatur/@-7.807298,110.21892,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7af82ef69a9485:0x354f6a3f8143339b!8m2!3d-7.807298!4d110.2910178!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pztxp8nm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+44.555.16+Balecatur/@-7.807298,110.21892,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7af82ef69a9485:0x354f6a3f8143339b!8m2!3d-7.807298!4d110.2910178!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pztxp8nm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>22 jam lalu</t>
         </is>
@@ -1680,25 +1644,24 @@
           <t>(0274) 484795</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.4</v>
+        <v>-7.783101</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.783101</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.436195</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.04+Adisucipto/@-7.7831014,110.3640972,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5a053c8974b1:0xc27ce4dd8810e67a!8m2!3d-7.7831014!4d110.436195!15sCgtTUEJVIFNsZW1hbloNIgtzcGJ1IHNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzr7lzm_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.04+Adisucipto/@-7.7831014,110.3640972,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5a053c8974b1:0xc27ce4dd8810e67a!8m2!3d-7.7831014!4d110.436195!15sCgtTUEJVIFNsZW1hbloNIgtzcGJ1IHNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzr7lzm_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>7 jam lalu</t>
         </is>
@@ -1721,25 +1684,24 @@
           <t>0812-7360-1240</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.5</v>
+        <v>-7.689502</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.689502</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.461759</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Bimomartani+Pertamina+44.555.36/@-7.6895022,110.3896614,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5dcaa49f14ed:0xcf4b113553a31699!8m2!3d-7.6895022!4d110.4617592!15sCgtTUEJVIFNsZW1hbloNIgtzcGJ1IHNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11pb0vx0jl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Bimomartani+Pertamina+44.555.36/@-7.6895022,110.3896614,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5dcaa49f14ed:0xcf4b113553a31699!8m2!3d-7.6895022!4d110.4617592!15sCgtTUEJVIFNsZW1hbloNIgtzcGJ1IHNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11pb0vx0jl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1766,25 +1728,24 @@
           <t>(0274) 498326</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.5</v>
+        <v>-7.779097</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.779097</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.455737</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+Kalitirto+44.555.14/@-7.7790969,110.3836387,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5a6dd145e295:0x453cf152fb6f0a61!8m2!3d-7.7790969!4d110.4557365!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11c0p_qh4_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+Kalitirto+44.555.14/@-7.7790969,110.3836387,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5a6dd145e295:0x453cf152fb6f0a61!8m2!3d-7.7790969!4d110.4557365!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11c0p_qh4_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>1 jam lalu</t>
         </is>
@@ -1807,25 +1768,24 @@
           <t>0813-1006-6690</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.7</v>
+        <v>-7.710171</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.710171</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.306391</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Pertashop+Margoagung+4P.55505/@-7.710171,110.2342928,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7af52b39e6b147:0xfeda95753565e274!8m2!3d-7.710171!4d110.3063906!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11q95j_9dr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1848,25 +1808,24 @@
           <t>0851-0126-0444</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.5</v>
+        <v>-7.661055</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.661055</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.40721</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pakem+Mangunan+Pertamina+44.555.07/@-7.6610553,110.3351121,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5e44692e5c23:0x5666c1ed45006d7a!8m2!3d-7.6610553!4d110.4072099!15sCgtTUEJVIFNsZW1hbloNIgtzcGJ1IHNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzs0pfjp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pakem+Mangunan+Pertamina+44.555.07/@-7.6610553,110.3351121,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5e44692e5c23:0x5666c1ed45006d7a!8m2!3d-7.6610553!4d110.4072099!15sCgtTUEJVIFNsZW1hbloNIgtzcGJ1IHNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzs0pfjp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1885,25 +1844,24 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F38" t="n">
-        <v>3.9</v>
+        <v>-7.766302</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.766302</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.289454</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+GODEAN/@-7.7663017,110.2173563,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7af735b9020285:0xbb5c87fb5bfa2a!8m2!3d-7.7663017!4d110.2894541!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11my18j2hj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+GODEAN/@-7.7663017,110.2173563,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7af735b9020285:0xbb5c87fb5bfa2a!8m2!3d-7.7663017!4d110.2894541!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11my18j2hj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>51 menit lalu</t>
         </is>
@@ -1922,25 +1880,24 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F39" t="n">
-        <v>3.6</v>
+        <v>-7.723532</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.723532</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.401432</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Jl+Kaliurang/@-7.7235317,110.3293342,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a593435487d61:0x3209d8aead87780f!8m2!3d-7.7235317!4d110.401432!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11fjxtcklv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1963,25 +1920,24 @@
           <t>(0274) 496130</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.4</v>
+        <v>-7.761272</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.761272</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.476938</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.01+Kalasan/@-7.7612724,110.4048406,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5af709e55801:0x8281ba21678e826c!8m2!3d-7.7612724!4d110.4769384!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzshg802?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.01+Kalasan/@-7.7612724,110.4048406,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5af709e55801:0x8281ba21678e826c!8m2!3d-7.7612724!4d110.4769384!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzshg802?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -2004,25 +1960,24 @@
           <t>(0274) 2853775</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.5</v>
+        <v>-7.80486</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.80486</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.446056</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Berbah+44.555.34/@-7.7612724,110.4048406,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a515219362f4d:0x3d94ad567d31affb!8m2!3d-7.8048601!4d110.4460555!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11fkc_y4tp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Berbah+44.555.34/@-7.7612724,110.4048406,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a515219362f4d:0x3d94ad567d31affb!8m2!3d-7.8048601!4d110.4460555!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11fkc_y4tp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
